--- a/estatistica/atividades/Exercício Unidade 1 - Peso BASE.xlsx
+++ b/estatistica/atividades/Exercício Unidade 1 - Peso BASE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marln\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marln\OneDrive\Documents\estudos\unaerp\estatistica\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5475E-199E-438D-9853-302188ECA112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FFBB0-8A0D-456D-B09E-416B8EDACD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Plan1!$R$13</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Plan1!$Q$13</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Peso</t>
   </si>
@@ -62,6 +84,36 @@
   <si>
     <t>Arred E</t>
   </si>
+  <si>
+    <t>raiz</t>
+  </si>
+  <si>
+    <t>sturges</t>
+  </si>
+  <si>
+    <t>máximo</t>
+  </si>
+  <si>
+    <t>mínimo</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>amp.classe</t>
+  </si>
+  <si>
+    <t>classe.adotada</t>
+  </si>
+  <si>
+    <t>CLASSE</t>
+  </si>
+  <si>
+    <t>FREQUÊNCIA</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +158,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -133,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,12 +241,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +301,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,6 +350,996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$J$9:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$K$9:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DECF-405C-95F1-7DF1D936DCFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091168767"/>
+        <c:axId val="1091166847"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091168767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Peso(Kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091166847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="r"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1091166847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Frequência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091168767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -284,6 +1386,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E270ED-555B-A7D5-CB87-80F58E84FA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -576,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +1725,12 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="7.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,7 +1739,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -612,7 +1752,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -627,9 +1767,8 @@
         <v>700</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -641,14 +1780,14 @@
         <v>3</v>
       </c>
       <c r="H4" s="7">
+        <f>COUNT(B:B)</f>
         <v>78</v>
       </c>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -664,11 +1803,10 @@
         <v>0.10673303795892532</v>
       </c>
       <c r="K5"/>
-      <c r="L5"/>
+      <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -684,11 +1822,10 @@
         <v>0.107</v>
       </c>
       <c r="K6"/>
-      <c r="L6"/>
+      <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -696,161 +1833,299 @@
         <v>77.5</v>
       </c>
       <c r="K7"/>
-      <c r="L7"/>
+      <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>63.8</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8"/>
       <c r="V8"/>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>99.9</v>
       </c>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <f>COUNT(B:B)</f>
+        <v>78</v>
+      </c>
+      <c r="J9" s="13">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" cm="1">
+        <f t="array" ref="K9:K18">FREQUENCY(B:B,J8:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>70</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SQRT(H9)</f>
+        <v>8.8317608663278477</v>
+      </c>
+      <c r="J10" s="13">
+        <f>J9+H$16</f>
+        <v>53</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8</v>
+      </c>
+      <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>82</v>
       </c>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <f>1+3.3*LOG10(H9)</f>
+        <v>7.2439121888785847</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:J18" si="0">J10+H$16</f>
+        <v>60</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4</v>
+      </c>
+      <c r="U11"/>
       <c r="V11"/>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>78</v>
       </c>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15">
+        <f>MAX(B:B)</f>
+        <v>109</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="K12" s="7">
+        <v>13</v>
+      </c>
+      <c r="U12"/>
       <c r="V12"/>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>67</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="15">
+        <f>MIN(B:B)</f>
+        <v>46.5</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K13" s="7">
+        <v>16</v>
+      </c>
+      <c r="U13"/>
       <c r="V13"/>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>62</v>
       </c>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15">
+        <f>H12-H13</f>
+        <v>62.5</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K14" s="7">
+        <v>18</v>
+      </c>
+      <c r="U14"/>
       <c r="V14"/>
-      <c r="W14"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>62</v>
       </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H14/H10</f>
+        <v>7.0767314634037231</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3</v>
+      </c>
+      <c r="U15"/>
       <c r="V15"/>
-      <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>60</v>
       </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="K16" s="7">
+        <v>12</v>
+      </c>
+      <c r="U16"/>
       <c r="V16"/>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>61.5</v>
       </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17"/>
       <c r="V17"/>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>62</v>
       </c>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="U18"/>
       <c r="V18"/>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>89</v>
       </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="22"/>
+      <c r="U19"/>
       <c r="V19"/>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7">
+        <f>SUM(K9:K19)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -858,7 +2133,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -866,7 +2141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -874,7 +2149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -882,7 +2157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -890,7 +2165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -898,7 +2173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -906,7 +2181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -914,7 +2189,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -922,7 +2197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -930,7 +2205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -938,7 +2213,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -946,7 +2221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -954,7 +2229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -962,7 +2237,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -970,7 +2245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -978,7 +2253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -986,7 +2261,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -994,7 +2269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1002,77 +2277,77 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>93</v>
       </c>
+      <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>72</v>
       </c>
+      <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>77</v>
       </c>
+      <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>64</v>
       </c>
+      <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>58</v>
       </c>
+      <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>49</v>
       </c>
+      <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>52</v>
       </c>
+      <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1080,10 +2355,10 @@
         <v>90</v>
       </c>
       <c r="C48" s="3"/>
+      <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1091,20 +2366,20 @@
         <v>66</v>
       </c>
       <c r="C49" s="3"/>
+      <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>95</v>
       </c>
+      <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1112,7 +2387,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1120,7 +2395,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1128,7 +2403,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1136,7 +2411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1144,7 +2419,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1152,7 +2427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1160,7 +2435,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1168,7 +2443,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1176,7 +2451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1184,7 +2459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1192,7 +2467,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1200,7 +2475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1208,7 +2483,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1339,8 +2614,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q42:Q49">
-    <sortCondition ref="Q42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P42:P49">
+    <sortCondition ref="P42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.01" right="0.16" top="0.03" bottom="14316557.65" header="0.03" footer="0.01"/>
